--- a/LP1_29_03_23/testes_de_mesa.xlsx
+++ b/LP1_29_03_23/testes_de_mesa.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>Teste de Mesa</t>
   </si>
@@ -158,6 +158,30 @@
 O 8º é 59049
 O 9º é 177147
 O 10º é 531441</t>
+  </si>
+  <si>
+    <t>Vetor aleatório</t>
+  </si>
+  <si>
+    <t>Número inserido</t>
+  </si>
+  <si>
+    <t>91, 27, 56, 7, 70, 96, 94, 0, 68, 26</t>
+  </si>
+  <si>
+    <t>O número 56 está no índice 2</t>
+  </si>
+  <si>
+    <t>1, 97, 67, 31, 98, 7, 21, 6, 27, 77</t>
+  </si>
+  <si>
+    <t>O número 1 está no índice 0</t>
+  </si>
+  <si>
+    <t>91, 71, 3, 49, 71, 82, 62, 90, 48, 48</t>
+  </si>
+  <si>
+    <t>O número 12 não está na array</t>
   </si>
   <si>
     <t>Resultado (min, indice)</t>
@@ -339,11 +363,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13083,10 +13107,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.88"/>
-    <col customWidth="1" min="2" max="2" width="25.5"/>
-    <col customWidth="1" min="3" max="3" width="20.63"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
+    <col customWidth="1" min="1" max="1" width="31.38"/>
+    <col customWidth="1" min="2" max="2" width="19.75"/>
+    <col customWidth="1" min="3" max="3" width="30.63"/>
+    <col customWidth="1" min="4" max="4" width="32.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13096,10 +13120,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
@@ -13108,46 +13132,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="126.75" customHeight="1">
-      <c r="A3" s="12">
-        <v>34.0</v>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="12">
-        <v>2.0</v>
+        <v>56.0</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>23</v>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" ht="128.25" customHeight="1">
-      <c r="A4" s="12">
-        <v>2.0</v>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="12">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
+      <c r="C4" s="20" t="s">
+        <v>31</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>24</v>
+      <c r="D4" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" ht="131.25" customHeight="1">
-      <c r="A5" s="12">
-        <v>9.0</v>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="12">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>25</v>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>25</v>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -19190,10 +19214,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -19228,10 +19252,10 @@
         <v>8.0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -19266,10 +19290,10 @@
         <v>83.0</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>29</v>
+      <c r="L4" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -19304,10 +19328,10 @@
         <v>94.0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M5" s="7"/>
     </row>
@@ -19343,13 +19367,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>11</v>
@@ -19366,13 +19390,13 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="128.25" customHeight="1">
@@ -19383,13 +19407,13 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>36</v>
+      <c r="D4" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="131.25" customHeight="1">
@@ -19400,13 +19424,13 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
